--- a/BugReportTheBloomprint.xlsx
+++ b/BugReportTheBloomprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29003"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="221" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CE226A-8364-40DF-8E59-35832FB17581}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7744091-20ED-4D01-9905-84007FFD24F3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>The dark text is difficult to see with the dark background</t>
+  </si>
+  <si>
+    <t>B_006</t>
+  </si>
+  <si>
+    <t>Asset Loading</t>
+  </si>
+  <si>
+    <t>The background image on the flower bio pages fails to render</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background image should be shown clearly </t>
+  </si>
+  <si>
+    <t>Background image is glitched</t>
   </si>
 </sst>
 </file>
@@ -741,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1560,6 +1575,168 @@
       </c>
       <c r="C102" s="4"/>
     </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="16">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="43.5">
+      <c r="A117" s="3"/>
+      <c r="B117" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{65546F5E-2466-454B-B191-63F5E5FD36ED}"/>
@@ -1567,6 +1744,7 @@
     <hyperlink ref="C49" r:id="rId3" xr:uid="{A6DE60A4-647C-4055-A817-C394AE25599B}"/>
     <hyperlink ref="C70" r:id="rId4" xr:uid="{5FC3C073-D391-4D37-8147-DFB1AA4330FE}"/>
     <hyperlink ref="C91" r:id="rId5" xr:uid="{10F85A51-F893-467A-B03F-A2D7823DD031}"/>
+    <hyperlink ref="C112" r:id="rId6" xr:uid="{3EA7BF10-151E-4E2A-BD0C-03E04B0AB85D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
